--- a/kakaombti.xlsx
+++ b/kakaombti.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26522"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26528"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="396" documentId="11_20206B3795C7A0836B02CE998F0D84DA4D19828D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACABE444-7CBD-44FC-B3ED-48808A17ECFF}"/>
+  <xr:revisionPtr revIDLastSave="568" documentId="11_20206B3795C7A0836B02CE998F0D84DA4D19828D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{847B7616-551D-4E8E-BD0B-5DDC7BF01423}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="받은선물(사용완료)" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,9 @@
     <sheet name="준선물" sheetId="3" r:id="rId7"/>
     <sheet name="준선물_가로형변환" sheetId="8" r:id="rId8"/>
     <sheet name="준선물_열나누기" sheetId="9" r:id="rId9"/>
+    <sheet name="병합" sheetId="10" r:id="rId10"/>
+    <sheet name="DeepWide" sheetId="12" r:id="rId11"/>
+    <sheet name="FoodLife" sheetId="11" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'받은선물(사용완료)'!$A$1:$F$1</definedName>
@@ -40,8 +43,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3603" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4303" uniqueCount="256">
   <si>
     <t>데이터</t>
   </si>
@@ -641,6 +666,174 @@
   </si>
   <si>
     <t>to.강호영상세보기</t>
+  </si>
+  <si>
+    <t>선물수신인</t>
+  </si>
+  <si>
+    <t>가격 및 수량</t>
+  </si>
+  <si>
+    <t>주문일</t>
+  </si>
+  <si>
+    <t>수량의 위치</t>
+  </si>
+  <si>
+    <t>가격</t>
+  </si>
+  <si>
+    <t>수량의 종료위치</t>
+  </si>
+  <si>
+    <t>수량</t>
+  </si>
+  <si>
+    <t>2022.12.2216:12:44</t>
+  </si>
+  <si>
+    <t>26,500원</t>
+  </si>
+  <si>
+    <t>1개</t>
+  </si>
+  <si>
+    <t>2022.10.2219:28:29</t>
+  </si>
+  <si>
+    <t>27,000원</t>
+  </si>
+  <si>
+    <t>2022.10.0714:35:22</t>
+  </si>
+  <si>
+    <t>29,000원</t>
+  </si>
+  <si>
+    <t>2022.09.2809:32:24</t>
+  </si>
+  <si>
+    <t>2022.08.2817:15:35</t>
+  </si>
+  <si>
+    <t>100,000원</t>
+  </si>
+  <si>
+    <t>2022.08.1413:27:31</t>
+  </si>
+  <si>
+    <t>2022.08.1113:28:37</t>
+  </si>
+  <si>
+    <t>2022.07.1423:09:22</t>
+  </si>
+  <si>
+    <t>2022.07.0413:29:26</t>
+  </si>
+  <si>
+    <t>2022.05.2117:00:59</t>
+  </si>
+  <si>
+    <t>2022.05.1913:03:20</t>
+  </si>
+  <si>
+    <t>2022.05.1022:08:20</t>
+  </si>
+  <si>
+    <t>2022.04.1110:59:22</t>
+  </si>
+  <si>
+    <t>26,000원</t>
+  </si>
+  <si>
+    <t>2022.03.2919:12:59</t>
+  </si>
+  <si>
+    <t>15,900원</t>
+  </si>
+  <si>
+    <t>2022.03.1401:01:15</t>
+  </si>
+  <si>
+    <t>2022.02.2713:34:29</t>
+  </si>
+  <si>
+    <t>18,400원</t>
+  </si>
+  <si>
+    <t>2022.02.1817:43:00</t>
+  </si>
+  <si>
+    <t>2022.02.1417:05:45</t>
+  </si>
+  <si>
+    <t>2023.05.1121:07:54</t>
+  </si>
+  <si>
+    <t>8,900원</t>
+  </si>
+  <si>
+    <t>2023.04.1109:02:04</t>
+  </si>
+  <si>
+    <t>24,000원</t>
+  </si>
+  <si>
+    <t>2023.03.2909:21:17</t>
+  </si>
+  <si>
+    <t>19,900원</t>
+  </si>
+  <si>
+    <t>2023.03.0721:00:58</t>
+  </si>
+  <si>
+    <t>32,000원</t>
+  </si>
+  <si>
+    <t>2023.01.1302:59:28</t>
+  </si>
+  <si>
+    <t>250원</t>
+  </si>
+  <si>
+    <t>2023.01.1302:50:45</t>
+  </si>
+  <si>
+    <t>48,000원</t>
+  </si>
+  <si>
+    <t>2023.01.0917:54:31</t>
+  </si>
+  <si>
+    <t>2023.01.0513:03:23</t>
+  </si>
+  <si>
+    <t>선물종류</t>
+  </si>
+  <si>
+    <t>선물유형</t>
+  </si>
+  <si>
+    <t>받은선물(사용완료)</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Life</t>
+  </si>
+  <si>
+    <t>받은선물(사용가능)</t>
+  </si>
+  <si>
+    <t>준선물</t>
+  </si>
+  <si>
+    <t>주고받 선물갯수</t>
+  </si>
+  <si>
+    <t>관계유형</t>
   </si>
 </sst>
 </file>
@@ -702,6 +895,3084 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DeepWide!$E$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Wide</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>DeepWide!$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>관계유형</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DeepWide!$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6E1A-46D2-ABB9-6215ADA59B0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DeepWide!$E$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Deep</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>DeepWide!$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>관계유형</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DeepWide!$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-6E1A-46D2-ABB9-6215ADA59B0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1346277063"/>
+        <c:axId val="2097595351"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1346277063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2097595351"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2097595351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1346277063"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FoodLife!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Food</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>FoodLife!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>선물유형</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FoodLife!$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6BD3-41C6-9D63-74FF39B92A38}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FoodLife!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Life</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>FoodLife!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>선물유형</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FoodLife!$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6BD3-41C6-9D63-74FF39B92A38}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="405810807"/>
+        <c:axId val="39818551"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="405810807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="39818551"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="39818551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="405810807"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FoodLife!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Food</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>FoodLife!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>선물유형</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FoodLife!$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C38B-47E7-8708-513BE7654CF3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FoodLife!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Life</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>FoodLife!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>선물유형</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FoodLife!$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-C38B-47E7-8708-513BE7654CF3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="405810807"/>
+        <c:axId val="39818551"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="405810807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="39818551"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="39818551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="405810807"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EDF5958-A1CF-FC51-D46F-C38487BD12DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="차트 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E410930-ED22-4C28-BD8E-B288B8B48EF8}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{3EDF5958-A1CF-FC51-D46F-C38487BD12DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A4C3549-8E78-6DFB-3972-4866242EBB2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2742,6 +6013,1645 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF5F446-45A8-498E-B5E3-9AB30B9737F4}">
+  <dimension ref="A1:G48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I45" sqref="I45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.875" customWidth="1"/>
+    <col min="3" max="3" width="19.875" customWidth="1"/>
+    <col min="4" max="4" width="18.875" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="18.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" t="s">
+        <v>249</v>
+      </c>
+      <c r="G2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" t="s">
+        <v>249</v>
+      </c>
+      <c r="G3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" t="s">
+        <v>249</v>
+      </c>
+      <c r="G4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" t="s">
+        <v>249</v>
+      </c>
+      <c r="G6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" t="s">
+        <v>249</v>
+      </c>
+      <c r="G9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" t="s">
+        <v>249</v>
+      </c>
+      <c r="G11" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" t="s">
+        <v>249</v>
+      </c>
+      <c r="G12" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" t="s">
+        <v>249</v>
+      </c>
+      <c r="G13" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" t="s">
+        <v>249</v>
+      </c>
+      <c r="G14" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" t="s">
+        <v>249</v>
+      </c>
+      <c r="G15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" t="s">
+        <v>249</v>
+      </c>
+      <c r="G16" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" t="s">
+        <v>249</v>
+      </c>
+      <c r="G17" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" t="s">
+        <v>249</v>
+      </c>
+      <c r="G18" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" t="s">
+        <v>252</v>
+      </c>
+      <c r="G19" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" t="s">
+        <v>252</v>
+      </c>
+      <c r="G20" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" t="s">
+        <v>252</v>
+      </c>
+      <c r="G21" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" t="s">
+        <v>252</v>
+      </c>
+      <c r="G22" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>207</v>
+      </c>
+      <c r="B23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" t="s">
+        <v>253</v>
+      </c>
+      <c r="G23" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>210</v>
+      </c>
+      <c r="B24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" t="s">
+        <v>253</v>
+      </c>
+      <c r="G24" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>212</v>
+      </c>
+      <c r="B25" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25" t="s">
+        <v>253</v>
+      </c>
+      <c r="G25" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>214</v>
+      </c>
+      <c r="B26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" t="s">
+        <v>253</v>
+      </c>
+      <c r="G26" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>215</v>
+      </c>
+      <c r="B27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" t="s">
+        <v>253</v>
+      </c>
+      <c r="G27" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28" t="s">
+        <v>126</v>
+      </c>
+      <c r="F28" t="s">
+        <v>253</v>
+      </c>
+      <c r="G28" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>218</v>
+      </c>
+      <c r="B29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29" t="s">
+        <v>129</v>
+      </c>
+      <c r="F29" t="s">
+        <v>253</v>
+      </c>
+      <c r="G29" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>219</v>
+      </c>
+      <c r="B30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" t="s">
+        <v>118</v>
+      </c>
+      <c r="E30" t="s">
+        <v>133</v>
+      </c>
+      <c r="F30" t="s">
+        <v>253</v>
+      </c>
+      <c r="G30" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>220</v>
+      </c>
+      <c r="B31" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" t="s">
+        <v>136</v>
+      </c>
+      <c r="F31" t="s">
+        <v>253</v>
+      </c>
+      <c r="G31" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>221</v>
+      </c>
+      <c r="B32" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" t="s">
+        <v>118</v>
+      </c>
+      <c r="E32" t="s">
+        <v>77</v>
+      </c>
+      <c r="F32" t="s">
+        <v>253</v>
+      </c>
+      <c r="G32" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B33" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" t="s">
+        <v>253</v>
+      </c>
+      <c r="G33" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>223</v>
+      </c>
+      <c r="B34" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E34" t="s">
+        <v>76</v>
+      </c>
+      <c r="F34" t="s">
+        <v>253</v>
+      </c>
+      <c r="G34" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>224</v>
+      </c>
+      <c r="B35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" t="s">
+        <v>118</v>
+      </c>
+      <c r="E35" t="s">
+        <v>147</v>
+      </c>
+      <c r="F35" t="s">
+        <v>253</v>
+      </c>
+      <c r="G35" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>226</v>
+      </c>
+      <c r="B36" t="s">
+        <v>150</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>118</v>
+      </c>
+      <c r="E36" t="s">
+        <v>152</v>
+      </c>
+      <c r="F36" t="s">
+        <v>253</v>
+      </c>
+      <c r="G36" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>228</v>
+      </c>
+      <c r="B37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37" t="s">
+        <v>155</v>
+      </c>
+      <c r="F37" t="s">
+        <v>253</v>
+      </c>
+      <c r="G37" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>229</v>
+      </c>
+      <c r="B38" t="s">
+        <v>158</v>
+      </c>
+      <c r="C38" t="s">
+        <v>99</v>
+      </c>
+      <c r="D38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" t="s">
+        <v>160</v>
+      </c>
+      <c r="F38" t="s">
+        <v>253</v>
+      </c>
+      <c r="G38" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>231</v>
+      </c>
+      <c r="B39" t="s">
+        <v>145</v>
+      </c>
+      <c r="C39" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" t="s">
+        <v>118</v>
+      </c>
+      <c r="E39" t="s">
+        <v>163</v>
+      </c>
+      <c r="F39" t="s">
+        <v>253</v>
+      </c>
+      <c r="G39" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>232</v>
+      </c>
+      <c r="B40" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" t="s">
+        <v>118</v>
+      </c>
+      <c r="E40" t="s">
+        <v>166</v>
+      </c>
+      <c r="F40" t="s">
+        <v>253</v>
+      </c>
+      <c r="G40" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>233</v>
+      </c>
+      <c r="B41" t="s">
+        <v>169</v>
+      </c>
+      <c r="C41" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" t="s">
+        <v>171</v>
+      </c>
+      <c r="F41" t="s">
+        <v>253</v>
+      </c>
+      <c r="G41" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>235</v>
+      </c>
+      <c r="B42" t="s">
+        <v>173</v>
+      </c>
+      <c r="C42" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" t="s">
+        <v>175</v>
+      </c>
+      <c r="E42" t="s">
+        <v>147</v>
+      </c>
+      <c r="F42" t="s">
+        <v>253</v>
+      </c>
+      <c r="G42" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>237</v>
+      </c>
+      <c r="B43" t="s">
+        <v>177</v>
+      </c>
+      <c r="C43" t="s">
+        <v>178</v>
+      </c>
+      <c r="D43" t="s">
+        <v>175</v>
+      </c>
+      <c r="E43" t="s">
+        <v>152</v>
+      </c>
+      <c r="F43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G43" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>239</v>
+      </c>
+      <c r="B44" t="s">
+        <v>182</v>
+      </c>
+      <c r="C44" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" t="s">
+        <v>104</v>
+      </c>
+      <c r="E44" t="s">
+        <v>184</v>
+      </c>
+      <c r="F44" t="s">
+        <v>253</v>
+      </c>
+      <c r="G44" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>241</v>
+      </c>
+      <c r="B45" t="s">
+        <v>187</v>
+      </c>
+      <c r="C45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" t="s">
+        <v>190</v>
+      </c>
+      <c r="E45" t="s">
+        <v>189</v>
+      </c>
+      <c r="F45" t="s">
+        <v>253</v>
+      </c>
+      <c r="G45" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>243</v>
+      </c>
+      <c r="B46" t="s">
+        <v>192</v>
+      </c>
+      <c r="C46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" t="s">
+        <v>190</v>
+      </c>
+      <c r="E46" t="s">
+        <v>189</v>
+      </c>
+      <c r="F46" t="s">
+        <v>253</v>
+      </c>
+      <c r="G46" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>245</v>
+      </c>
+      <c r="B47" t="s">
+        <v>196</v>
+      </c>
+      <c r="C47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47" t="s">
+        <v>175</v>
+      </c>
+      <c r="E47" t="s">
+        <v>197</v>
+      </c>
+      <c r="F47" t="s">
+        <v>253</v>
+      </c>
+      <c r="G47" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>246</v>
+      </c>
+      <c r="B48" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" t="s">
+        <v>118</v>
+      </c>
+      <c r="E48" t="s">
+        <v>68</v>
+      </c>
+      <c r="F48" t="s">
+        <v>253</v>
+      </c>
+      <c r="G48" t="s">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EE3ADD3-E4CE-4616-9EB9-C6DBB2B84B21}">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="str" cm="1">
+        <f t="array" ref="A2:A33">_xlfn.UNIQUE(병합!E2:E48)</f>
+        <v>강호영</v>
+      </c>
+      <c r="B2">
+        <f>COUNTIF(병합!$E$2:$E$48,DeepWide!A2)</f>
+        <v>2</v>
+      </c>
+      <c r="C2" t="str">
+        <f>IF(B2&gt;=3,"Deep","Wide")</f>
+        <v>Wide</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="str">
+        <v>Ahnnnnnke</v>
+      </c>
+      <c r="B3">
+        <f>COUNTIF(병합!$E$2:$E$48,DeepWide!A3)</f>
+        <v>1</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C33" si="0">IF(B3&gt;=3,"Deep","Wide")</f>
+        <v>Wide</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="str">
+        <v>김수헌</v>
+      </c>
+      <c r="B4">
+        <f>COUNTIF(병합!$E$2:$E$48,DeepWide!A4)</f>
+        <v>2</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>Wide</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="str">
+        <v>택/미추홀/남</v>
+      </c>
+      <c r="B5">
+        <f>COUNTIF(병합!$E$2:$E$48,DeepWide!A5)</f>
+        <v>1</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>Wide</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="str">
+        <v>밍찌/시흥/남</v>
+      </c>
+      <c r="B6">
+        <f>COUNTIF(병합!$E$2:$E$48,DeepWide!A6)</f>
+        <v>1</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>Wide</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="str">
+        <v>문성웅형님(매형)</v>
+      </c>
+      <c r="B7">
+        <f>COUNTIF(병합!$E$2:$E$48,DeepWide!A7)</f>
+        <v>2</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>Wide</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="str">
+        <v>달/종로/남</v>
+      </c>
+      <c r="B8">
+        <f>COUNTIF(병합!$E$2:$E$48,DeepWide!A8)</f>
+        <v>1</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>Wide</v>
+      </c>
+      <c r="F8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="str">
+        <v>허윤주</v>
+      </c>
+      <c r="B9">
+        <f>COUNTIF(병합!$E$2:$E$48,DeepWide!A9)</f>
+        <v>6</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>Deep</v>
+      </c>
+      <c r="E9" t="str" cm="1">
+        <f t="array" ref="E9:E10">_xlfn.UNIQUE(C2:C33)</f>
+        <v>Wide</v>
+      </c>
+      <c r="F9">
+        <f>COUNTIF($C$2:$C$33,E9)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="str">
+        <v>유현선</v>
+      </c>
+      <c r="B10">
+        <f>COUNTIF(병합!$E$2:$E$48,DeepWide!A10)</f>
+        <v>2</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>Wide</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Deep</v>
+      </c>
+      <c r="F10">
+        <f>COUNTIF($C$2:$C$33,E10)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="str">
+        <v>채윤수</v>
+      </c>
+      <c r="B11">
+        <f>COUNTIF(병합!$E$2:$E$48,DeepWide!A11)</f>
+        <v>3</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>Deep</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="str">
+        <v>누나</v>
+      </c>
+      <c r="B12">
+        <f>COUNTIF(병합!$E$2:$E$48,DeepWide!A12)</f>
+        <v>1</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>Wide</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="str">
+        <v>김강일행님</v>
+      </c>
+      <c r="B13">
+        <f>COUNTIF(병합!$E$2:$E$48,DeepWide!A13)</f>
+        <v>1</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>Wide</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="str">
+        <v>나</v>
+      </c>
+      <c r="B14">
+        <f>COUNTIF(병합!$E$2:$E$48,DeepWide!A14)</f>
+        <v>2</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>Wide</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="str">
+        <v>지둥이 여 인천</v>
+      </c>
+      <c r="B15">
+        <f>COUNTIF(병합!$E$2:$E$48,DeepWide!A15)</f>
+        <v>1</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>Wide</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="str">
+        <v>박경원</v>
+      </c>
+      <c r="B16">
+        <f>COUNTIF(병합!$E$2:$E$48,DeepWide!A16)</f>
+        <v>1</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>Wide</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="str">
+        <v>박준현</v>
+      </c>
+      <c r="B17">
+        <f>COUNTIF(병합!$E$2:$E$48,DeepWide!A17)</f>
+        <v>1</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>Wide</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="str">
+        <v>이선엽</v>
+      </c>
+      <c r="B18">
+        <f>COUNTIF(병합!$E$2:$E$48,DeepWide!A18)</f>
+        <v>1</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>Wide</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="str">
+        <v>원빈</v>
+      </c>
+      <c r="B19">
+        <f>COUNTIF(병합!$E$2:$E$48,DeepWide!A19)</f>
+        <v>1</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>Wide</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="str">
+        <v>김경일</v>
+      </c>
+      <c r="B20">
+        <f>COUNTIF(병합!$E$2:$E$48,DeepWide!A20)</f>
+        <v>1</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>Wide</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="str">
+        <v>이호성</v>
+      </c>
+      <c r="B21">
+        <f>COUNTIF(병합!$E$2:$E$48,DeepWide!A21)</f>
+        <v>1</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>Wide</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="str">
+        <v>빡다</v>
+      </c>
+      <c r="B22">
+        <f>COUNTIF(병합!$E$2:$E$48,DeepWide!A22)</f>
+        <v>1</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>Wide</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="str">
+        <v>김진호</v>
+      </c>
+      <c r="B23">
+        <f>COUNTIF(병합!$E$2:$E$48,DeepWide!A23)</f>
+        <v>1</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>Wide</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="str">
+        <v>허남열</v>
+      </c>
+      <c r="B24">
+        <f>COUNTIF(병합!$E$2:$E$48,DeepWide!A24)</f>
+        <v>2</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>Wide</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="str">
+        <v>박건우</v>
+      </c>
+      <c r="B25">
+        <f>COUNTIF(병합!$E$2:$E$48,DeepWide!A25)</f>
+        <v>2</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>Wide</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="str">
+        <v>hjb</v>
+      </c>
+      <c r="B26">
+        <f>COUNTIF(병합!$E$2:$E$48,DeepWide!A26)</f>
+        <v>1</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>Wide</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="str">
+        <v>박채현</v>
+      </c>
+      <c r="B27">
+        <f>COUNTIF(병합!$E$2:$E$48,DeepWide!A27)</f>
+        <v>1</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>Wide</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="str">
+        <v>이대협</v>
+      </c>
+      <c r="B28">
+        <f>COUNTIF(병합!$E$2:$E$48,DeepWide!A28)</f>
+        <v>1</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>Wide</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="str">
+        <v>Baek’s</v>
+      </c>
+      <c r="B29">
+        <f>COUNTIF(병합!$E$2:$E$48,DeepWide!A29)</f>
+        <v>1</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>Wide</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="str">
+        <v>동화</v>
+      </c>
+      <c r="B30">
+        <f>COUNTIF(병합!$E$2:$E$48,DeepWide!A30)</f>
+        <v>1</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>Wide</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="str">
+        <v>.</v>
+      </c>
+      <c r="B31">
+        <f>COUNTIF(병합!$E$2:$E$48,DeepWide!A31)</f>
+        <v>1</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>Wide</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="str">
+        <v>코드선물</v>
+      </c>
+      <c r="B32">
+        <f>COUNTIF(병합!$E$2:$E$48,DeepWide!A32)</f>
+        <v>2</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>Wide</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="str">
+        <v>남창현</v>
+      </c>
+      <c r="B33">
+        <f>COUNTIF(병합!$E$2:$E$48,DeepWide!A33)</f>
+        <v>1</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>Wide</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="B34">
+        <f>SUM(B2:B33)</f>
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A7260B-8709-424A-B93B-8FB9AC647158}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1">
+      <c r="B1" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2">
+        <f>COUNTIF(병합!$G$2:$G$48,FoodLife!A2)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B3">
+        <f>COUNTIF(병합!$G$2:$G$48,FoodLife!A3)</f>
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF98C6F-270C-4D12-8BB7-C1123BE2C7D1}">
   <dimension ref="A1:H18"/>
@@ -3307,7 +8217,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection sqref="A1:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4245,7 +9155,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4352,13 +9262,14 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L297"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H298" sqref="H298"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:L287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="16.75" customWidth="1"/>
     <col min="4" max="4" width="8.75" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="7" max="7" width="17.75" customWidth="1"/>
@@ -15276,24 +20187,1910 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{052B9254-56E3-4D1D-99D4-3F28E0CE9BE9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection sqref="A1:L27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="74.75" customWidth="1"/>
+    <col min="6" max="6" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2">
+        <v>1928439111</v>
+      </c>
+      <c r="C2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" t="str">
+        <f>RIGHT(G2,LEN(G2)-LEN("주문일"))</f>
+        <v>2022.12.2216:12:44</v>
+      </c>
+      <c r="I2">
+        <f>FIND("수량 ",D2)</f>
+        <v>8</v>
+      </c>
+      <c r="J2" t="str">
+        <f>LEFT(D2,I2-1)</f>
+        <v>26,500원</v>
+      </c>
+      <c r="K2">
+        <f>FIND("수량 ",D2)+LEN("수량 ")-1</f>
+        <v>10</v>
+      </c>
+      <c r="L2" t="str">
+        <f>RIGHT(D2,LEN(D2)-K2)</f>
+        <v>1개</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3">
+        <v>1853340284</v>
+      </c>
+      <c r="C3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H27" si="0">RIGHT(G3,LEN(G3)-LEN("주문일"))</f>
+        <v>2022.10.2219:28:29</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I27" si="1">FIND("수량 ",D3)</f>
+        <v>8</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J27" si="2">LEFT(D3,I3-1)</f>
+        <v>27,000원</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K27" si="3">FIND("수량 ",D3)+LEN("수량 ")-1</f>
+        <v>10</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L27" si="4">RIGHT(D3,LEN(D3)-K3)</f>
+        <v>1개</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4">
+        <v>1838824826</v>
+      </c>
+      <c r="C4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>2022.10.0714:35:22</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="2"/>
+        <v>29,000원</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="4"/>
+        <v>1개</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5">
+        <v>1828468927</v>
+      </c>
+      <c r="C5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>2022.09.2809:32:24</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="2"/>
+        <v>27,000원</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="4"/>
+        <v>1개</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6">
+        <v>1792283523</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>2022.08.2817:15:35</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="2"/>
+        <v>100,000원</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="4"/>
+        <v>1개</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7">
+        <v>1777497316</v>
+      </c>
+      <c r="C7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>2022.08.1413:27:31</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="2"/>
+        <v>27,000원</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="4"/>
+        <v>1개</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8">
+        <v>1774404235</v>
+      </c>
+      <c r="C8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" t="s">
+        <v>127</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>2022.08.1113:28:37</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="2"/>
+        <v>27,000원</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="4"/>
+        <v>1개</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9">
+        <v>1744381657</v>
+      </c>
+      <c r="C9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" t="s">
+        <v>130</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>2022.07.1423:09:22</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="2"/>
+        <v>27,000원</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="4"/>
+        <v>1개</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10">
+        <v>1732762717</v>
+      </c>
+      <c r="C10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>134</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>2022.07.0413:29:26</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="2"/>
+        <v>27,000원</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="4"/>
+        <v>1개</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11">
+        <v>1686226456</v>
+      </c>
+      <c r="C11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" t="s">
+        <v>137</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>2022.05.2117:00:59</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="2"/>
+        <v>27,000원</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="4"/>
+        <v>1개</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12">
+        <v>1683882914</v>
+      </c>
+      <c r="C12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" t="s">
+        <v>139</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>2022.05.1913:03:20</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="2"/>
+        <v>27,000원</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="4"/>
+        <v>1개</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13">
+        <v>1673289684</v>
+      </c>
+      <c r="C13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" t="s">
+        <v>141</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>2022.05.1022:08:20</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="2"/>
+        <v>27,000원</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="4"/>
+        <v>1개</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14">
+        <v>1638704273</v>
+      </c>
+      <c r="C14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" t="s">
+        <v>145</v>
+      </c>
+      <c r="F14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" t="s">
+        <v>143</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>2022.04.1110:59:22</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="2"/>
+        <v>26,000원</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="4"/>
+        <v>1개</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15">
+        <v>1623232595</v>
+      </c>
+      <c r="C15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15" t="s">
+        <v>151</v>
+      </c>
+      <c r="E15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>2022.03.2919:12:59</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="2"/>
+        <v>15,900원</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="4"/>
+        <v>1개</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16">
+        <v>1601218565</v>
+      </c>
+      <c r="C16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" t="s">
+        <v>145</v>
+      </c>
+      <c r="F16" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" t="s">
+        <v>153</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>2022.03.1401:01:15</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="2"/>
+        <v>26,000원</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="4"/>
+        <v>1개</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17">
+        <v>1582246569</v>
+      </c>
+      <c r="C17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" t="s">
+        <v>159</v>
+      </c>
+      <c r="E17" t="s">
+        <v>158</v>
+      </c>
+      <c r="F17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" t="s">
+        <v>156</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>2022.02.2713:34:29</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="2"/>
+        <v>18,400원</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="4"/>
+        <v>1개</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18">
+        <v>1571605454</v>
+      </c>
+      <c r="C18" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" t="s">
+        <v>146</v>
+      </c>
+      <c r="E18" t="s">
+        <v>145</v>
+      </c>
+      <c r="F18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" t="s">
+        <v>161</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>2022.02.1817:43:00</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="2"/>
+        <v>26,000원</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="4"/>
+        <v>1개</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19">
+        <v>1565605206</v>
+      </c>
+      <c r="C19" t="s">
+        <v>166</v>
+      </c>
+      <c r="D19" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" t="s">
+        <v>112</v>
+      </c>
+      <c r="F19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" t="s">
+        <v>164</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>2022.02.1417:05:45</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="2"/>
+        <v>29,000원</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="4"/>
+        <v>1개</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20">
+        <v>2089679742</v>
+      </c>
+      <c r="C20" t="s">
+        <v>171</v>
+      </c>
+      <c r="D20" t="s">
+        <v>170</v>
+      </c>
+      <c r="E20" t="s">
+        <v>169</v>
+      </c>
+      <c r="F20" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" t="s">
+        <v>167</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>2023.05.1121:07:54</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="2"/>
+        <v>8,900원</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="4"/>
+        <v>1개</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>175</v>
+      </c>
+      <c r="B21">
+        <v>2055587816</v>
+      </c>
+      <c r="C21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21" t="s">
+        <v>174</v>
+      </c>
+      <c r="E21" t="s">
+        <v>173</v>
+      </c>
+      <c r="F21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" t="s">
+        <v>172</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v>2023.04.1109:02:04</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="2"/>
+        <v>24,000원</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="4"/>
+        <v>1개</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B22">
+        <v>2041815273</v>
+      </c>
+      <c r="C22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22" t="s">
+        <v>179</v>
+      </c>
+      <c r="E22" t="s">
+        <v>177</v>
+      </c>
+      <c r="F22" t="s">
+        <v>178</v>
+      </c>
+      <c r="G22" t="s">
+        <v>176</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v>2023.03.2909:21:17</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="2"/>
+        <v>19,900원</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="4"/>
+        <v>1개</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23">
+        <v>2017255684</v>
+      </c>
+      <c r="C23" t="s">
+        <v>184</v>
+      </c>
+      <c r="D23" t="s">
+        <v>183</v>
+      </c>
+      <c r="E23" t="s">
+        <v>182</v>
+      </c>
+      <c r="F23" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" t="s">
+        <v>180</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="0"/>
+        <v>2023.03.0721:00:58</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="2"/>
+        <v>32,000원</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="4"/>
+        <v>1개</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>190</v>
+      </c>
+      <c r="B24">
+        <v>1955687722</v>
+      </c>
+      <c r="C24" t="s">
+        <v>189</v>
+      </c>
+      <c r="D24" t="s">
+        <v>188</v>
+      </c>
+      <c r="E24" t="s">
+        <v>187</v>
+      </c>
+      <c r="F24" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" t="s">
+        <v>185</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="0"/>
+        <v>2023.01.1302:59:28</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="2"/>
+        <v>250원</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="4"/>
+        <v>1개</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>190</v>
+      </c>
+      <c r="B25">
+        <v>1955686622</v>
+      </c>
+      <c r="C25" t="s">
+        <v>189</v>
+      </c>
+      <c r="D25" t="s">
+        <v>193</v>
+      </c>
+      <c r="E25" t="s">
+        <v>192</v>
+      </c>
+      <c r="F25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" t="s">
+        <v>191</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="0"/>
+        <v>2023.01.1302:50:45</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="2"/>
+        <v>48,000원</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="4"/>
+        <v>1개</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>175</v>
+      </c>
+      <c r="B26">
+        <v>1951994296</v>
+      </c>
+      <c r="C26" t="s">
+        <v>197</v>
+      </c>
+      <c r="D26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E26" t="s">
+        <v>196</v>
+      </c>
+      <c r="F26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" t="s">
+        <v>194</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="0"/>
+        <v>2023.01.0917:54:31</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="2"/>
+        <v>24,000원</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="4"/>
+        <v>1개</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27">
+        <v>1947618423</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" t="s">
+        <v>198</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="0"/>
+        <v>2023.01.0513:03:23</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="2"/>
+        <v>27,000원</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="4"/>
+        <v>1개</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F11F3A6-8158-48CF-AB67-A3E2725851BC}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="74.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2">
+        <v>1928439111</v>
+      </c>
+      <c r="C2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G2" t="s">
+        <v>208</v>
+      </c>
+      <c r="H2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3">
+        <v>1853340284</v>
+      </c>
+      <c r="C3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4">
+        <v>1838824826</v>
+      </c>
+      <c r="C4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" t="s">
+        <v>212</v>
+      </c>
+      <c r="G4" t="s">
+        <v>213</v>
+      </c>
+      <c r="H4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5">
+        <v>1828468927</v>
+      </c>
+      <c r="C5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G5" t="s">
+        <v>211</v>
+      </c>
+      <c r="H5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6">
+        <v>1792283523</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G6" t="s">
+        <v>216</v>
+      </c>
+      <c r="H6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7">
+        <v>1777497316</v>
+      </c>
+      <c r="C7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8">
+        <v>1774404235</v>
+      </c>
+      <c r="C8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" t="s">
+        <v>218</v>
+      </c>
+      <c r="G8" t="s">
+        <v>211</v>
+      </c>
+      <c r="H8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9">
+        <v>1744381657</v>
+      </c>
+      <c r="C9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" t="s">
+        <v>219</v>
+      </c>
+      <c r="G9" t="s">
+        <v>211</v>
+      </c>
+      <c r="H9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10">
+        <v>1732762717</v>
+      </c>
+      <c r="C10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" t="s">
+        <v>220</v>
+      </c>
+      <c r="G10" t="s">
+        <v>211</v>
+      </c>
+      <c r="H10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11">
+        <v>1686226456</v>
+      </c>
+      <c r="C11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" t="s">
+        <v>221</v>
+      </c>
+      <c r="G11" t="s">
+        <v>211</v>
+      </c>
+      <c r="H11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12">
+        <v>1683882914</v>
+      </c>
+      <c r="C12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" t="s">
+        <v>222</v>
+      </c>
+      <c r="G12" t="s">
+        <v>211</v>
+      </c>
+      <c r="H12" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13">
+        <v>1673289684</v>
+      </c>
+      <c r="C13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" t="s">
+        <v>132</v>
+      </c>
+      <c r="E13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" t="s">
+        <v>223</v>
+      </c>
+      <c r="G13" t="s">
+        <v>211</v>
+      </c>
+      <c r="H13" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14">
+        <v>1638704273</v>
+      </c>
+      <c r="C14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" t="s">
+        <v>224</v>
+      </c>
+      <c r="G14" t="s">
+        <v>225</v>
+      </c>
+      <c r="H14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15">
+        <v>1623232595</v>
+      </c>
+      <c r="C15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15" t="s">
+        <v>150</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" t="s">
+        <v>226</v>
+      </c>
+      <c r="G15" t="s">
+        <v>227</v>
+      </c>
+      <c r="H15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16">
+        <v>1601218565</v>
+      </c>
+      <c r="C16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" t="s">
+        <v>228</v>
+      </c>
+      <c r="G16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H16" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17">
+        <v>1582246569</v>
+      </c>
+      <c r="C17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" t="s">
+        <v>158</v>
+      </c>
+      <c r="E17" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" t="s">
+        <v>229</v>
+      </c>
+      <c r="G17" t="s">
+        <v>230</v>
+      </c>
+      <c r="H17" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18">
+        <v>1571605454</v>
+      </c>
+      <c r="C18" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" t="s">
+        <v>145</v>
+      </c>
+      <c r="E18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" t="s">
+        <v>231</v>
+      </c>
+      <c r="G18" t="s">
+        <v>225</v>
+      </c>
+      <c r="H18" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19">
+        <v>1565605206</v>
+      </c>
+      <c r="C19" t="s">
+        <v>166</v>
+      </c>
+      <c r="D19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" t="s">
+        <v>232</v>
+      </c>
+      <c r="G19" t="s">
+        <v>213</v>
+      </c>
+      <c r="H19" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20">
+        <v>2089679742</v>
+      </c>
+      <c r="C20" t="s">
+        <v>171</v>
+      </c>
+      <c r="D20" t="s">
+        <v>169</v>
+      </c>
+      <c r="E20" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" t="s">
+        <v>233</v>
+      </c>
+      <c r="G20" t="s">
+        <v>234</v>
+      </c>
+      <c r="H20" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>175</v>
+      </c>
+      <c r="B21">
+        <v>2055587816</v>
+      </c>
+      <c r="C21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21" t="s">
+        <v>173</v>
+      </c>
+      <c r="E21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" t="s">
+        <v>235</v>
+      </c>
+      <c r="G21" t="s">
+        <v>236</v>
+      </c>
+      <c r="H21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B22">
+        <v>2041815273</v>
+      </c>
+      <c r="C22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22" t="s">
+        <v>177</v>
+      </c>
+      <c r="E22" t="s">
+        <v>178</v>
+      </c>
+      <c r="F22" t="s">
+        <v>237</v>
+      </c>
+      <c r="G22" t="s">
+        <v>238</v>
+      </c>
+      <c r="H22" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23">
+        <v>2017255684</v>
+      </c>
+      <c r="C23" t="s">
+        <v>184</v>
+      </c>
+      <c r="D23" t="s">
+        <v>182</v>
+      </c>
+      <c r="E23" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" t="s">
+        <v>239</v>
+      </c>
+      <c r="G23" t="s">
+        <v>240</v>
+      </c>
+      <c r="H23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>190</v>
+      </c>
+      <c r="B24">
+        <v>1955687722</v>
+      </c>
+      <c r="C24" t="s">
+        <v>189</v>
+      </c>
+      <c r="D24" t="s">
+        <v>187</v>
+      </c>
+      <c r="E24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" t="s">
+        <v>241</v>
+      </c>
+      <c r="G24" t="s">
+        <v>242</v>
+      </c>
+      <c r="H24" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>190</v>
+      </c>
+      <c r="B25">
+        <v>1955686622</v>
+      </c>
+      <c r="C25" t="s">
+        <v>189</v>
+      </c>
+      <c r="D25" t="s">
+        <v>192</v>
+      </c>
+      <c r="E25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" t="s">
+        <v>243</v>
+      </c>
+      <c r="G25" t="s">
+        <v>244</v>
+      </c>
+      <c r="H25" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>175</v>
+      </c>
+      <c r="B26">
+        <v>1951994296</v>
+      </c>
+      <c r="C26" t="s">
+        <v>197</v>
+      </c>
+      <c r="D26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" t="s">
+        <v>245</v>
+      </c>
+      <c r="G26" t="s">
+        <v>236</v>
+      </c>
+      <c r="H26" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27">
+        <v>1947618423</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" t="s">
+        <v>99</v>
+      </c>
+      <c r="F27" t="s">
+        <v>246</v>
+      </c>
+      <c r="G27" t="s">
+        <v>211</v>
+      </c>
+      <c r="H27" t="s">
+        <v>209</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>